--- a/biology/Botanique/Jardin_botanique_de_l'Arquebuse_de_Dijon/Jardin_botanique_de_l'Arquebuse_de_Dijon.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_l'Arquebuse_de_Dijon/Jardin_botanique_de_l'Arquebuse_de_Dijon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_l%27Arquebuse_de_Dijon</t>
+          <t>Jardin_botanique_de_l'Arquebuse_de_Dijon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin botanique de l'arquebuse de Dijon est un jardin botanique municipal créé en 1833 à Dijon, riche d'environ 3 500 espèces de plantes botaniques de Bourgogne et du monde entier, réparties sur plus de 5 hectares avec jardin public, arboretum, roseraie, muséum d'histoire naturelle et planétarium.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_l%27Arquebuse_de_Dijon</t>
+          <t>Jardin_botanique_de_l'Arquebuse_de_Dijon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1543, la « compagnie des arquebusiers du roi de Dijon » s'installe dans les bâtiments, parc et jardin de ce domaine, derrière l'actuelle gare de Dijon-Ville, aux portes du centre ville. Au XVIIIe siècle, le dernier capitaine de la compagnie, Marc-Antoine Chartraire de Montigny (1703-1749)[1], fait restaurer et embellir jardins et bâtiments à ses frais.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1543, la « compagnie des arquebusiers du roi de Dijon » s'installe dans les bâtiments, parc et jardin de ce domaine, derrière l'actuelle gare de Dijon-Ville, aux portes du centre ville. Au XVIIIe siècle, le dernier capitaine de la compagnie, Marc-Antoine Chartraire de Montigny (1703-1749), fait restaurer et embellir jardins et bâtiments à ses frais.
 			Bénigne Le Gouz de Gerland
 			Bâtiment des arquebusiers
 En 1771, Bénigne Le Gouz de Gerland fonde le premier jardin botanique de Dijon sur l'actuel boulevard Voltaire. Le jardin est transféré en 1833 au domaine de la compagnie des arquebusiers, cédé à la ville en 1808.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_l%27Arquebuse_de_Dijon</t>
+          <t>Jardin_botanique_de_l'Arquebuse_de_Dijon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc et jardin botanique de Dijon, orné de statues, d'un temple de l'Amour, et traversé par le Raines, petit ruisseau sur lequel vivent des cygnes et des canards, est constitué :
 du « Muséum d'histoire naturelle de Dijon » inauguré en 1836 dans les anciens bâtiments de la compagnie des arquebusiers. Il présente des expositions permanentes (Pavillon de l'Arquebuse) et temporaires (Pavillon du Raines) en zoologie, géologie, paléontologie, ethnographie et minéralogie.
